--- a/data/BMHC_Navigation_Outreach_Impact_Report.xlsx
+++ b/data/BMHC_Navigation_Outreach_Impact_Report.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CxLos\OneDrive\Documents\BMHC\2024\Monthly Reports\November\MC_Impact_11_2024\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71CD1B2-B28D-4A82-89F1-7C64C4A79998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Responses" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -166,20 +175,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -188,11 +199,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="13">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF442F65"/>
@@ -206,6 +223,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -220,6 +238,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -234,6 +253,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -248,6 +268,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -262,6 +283,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -276,6 +298,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -290,6 +313,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -304,6 +328,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -318,6 +343,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -332,6 +358,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -346,6 +373,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -360,187 +388,153 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF5B3F86"/>
           <bgColor rgb="FF5B3F86"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Form Responses 1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Form Responses 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:AO6" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AO6" headerRowCount="0">
   <tableColumns count="41">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
-    <tableColumn name="Column4" id="4"/>
-    <tableColumn name="Column5" id="5"/>
-    <tableColumn name="Column6" id="6"/>
-    <tableColumn name="Column7" id="7"/>
-    <tableColumn name="Column8" id="8"/>
-    <tableColumn name="Column9" id="9"/>
-    <tableColumn name="Column10" id="10"/>
-    <tableColumn name="Column11" id="11"/>
-    <tableColumn name="Column12" id="12"/>
-    <tableColumn name="Column13" id="13"/>
-    <tableColumn name="Column14" id="14"/>
-    <tableColumn name="Column15" id="15"/>
-    <tableColumn name="Column16" id="16"/>
-    <tableColumn name="Column17" id="17"/>
-    <tableColumn name="Column18" id="18"/>
-    <tableColumn name="Column19" id="19"/>
-    <tableColumn name="Column20" id="20"/>
-    <tableColumn name="Column21" id="21"/>
-    <tableColumn name="Column22" id="22"/>
-    <tableColumn name="Column23" id="23"/>
-    <tableColumn name="Column24" id="24"/>
-    <tableColumn name="Column25" id="25"/>
-    <tableColumn name="Column26" id="26"/>
-    <tableColumn name="Column27" id="27"/>
-    <tableColumn name="Column28" id="28"/>
-    <tableColumn name="Column29" id="29"/>
-    <tableColumn name="Column30" id="30"/>
-    <tableColumn name="Column31" id="31"/>
-    <tableColumn name="Column32" id="32"/>
-    <tableColumn name="Column33" id="33"/>
-    <tableColumn name="Column34" id="34"/>
-    <tableColumn name="Column35" id="35"/>
-    <tableColumn name="Column36" id="36"/>
-    <tableColumn name="Column37" id="37"/>
-    <tableColumn name="Column38" id="38"/>
-    <tableColumn name="Column39" id="39"/>
-    <tableColumn name="Column40" id="40"/>
-    <tableColumn name="Column41" id="41"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Column15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column16"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Column17"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Column18"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Column19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Column20"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Column21"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Column22"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Column23"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Column24"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Column25"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Column26"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Column27"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Column28"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Column29"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Column30"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Column31"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Column32"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Column33"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Column34"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Column35"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Column36"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Column37"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Column38"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Column39"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Column40"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Column41"/>
   </tableColumns>
-  <tableStyleInfo name="Form Responses 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Form Responses 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
@@ -550,7 +544,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -740,62 +734,65 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.88"/>
-    <col customWidth="1" min="2" max="2" width="36.63"/>
-    <col customWidth="1" min="3" max="4" width="18.88"/>
-    <col customWidth="1" min="5" max="5" width="30.25"/>
-    <col customWidth="1" min="6" max="6" width="24.5"/>
-    <col customWidth="1" min="7" max="7" width="26.25"/>
-    <col customWidth="1" min="8" max="8" width="31.38"/>
-    <col customWidth="1" min="9" max="9" width="33.13"/>
-    <col customWidth="1" min="10" max="10" width="18.88"/>
-    <col customWidth="1" min="11" max="11" width="24.5"/>
-    <col customWidth="1" min="12" max="12" width="26.25"/>
-    <col customWidth="1" min="13" max="13" width="31.38"/>
-    <col customWidth="1" min="14" max="14" width="33.13"/>
-    <col customWidth="1" min="15" max="15" width="30.25"/>
-    <col customWidth="1" min="16" max="17" width="18.88"/>
-    <col customWidth="1" min="18" max="18" width="24.5"/>
-    <col customWidth="1" min="19" max="19" width="26.25"/>
-    <col customWidth="1" min="20" max="20" width="31.38"/>
-    <col customWidth="1" min="21" max="21" width="33.13"/>
-    <col customWidth="1" min="22" max="22" width="30.25"/>
-    <col customWidth="1" min="23" max="23" width="18.88"/>
-    <col customWidth="1" min="24" max="24" width="32.13"/>
-    <col customWidth="1" min="25" max="25" width="19.0"/>
-    <col customWidth="1" min="26" max="26" width="20.0"/>
-    <col customWidth="1" min="27" max="27" width="21.88"/>
-    <col customWidth="1" min="28" max="28" width="18.88"/>
-    <col customWidth="1" min="29" max="29" width="33.38"/>
-    <col customWidth="1" min="30" max="30" width="19.0"/>
-    <col customWidth="1" min="31" max="31" width="26.25"/>
-    <col customWidth="1" min="32" max="33" width="18.88"/>
-    <col customWidth="1" min="34" max="34" width="31.38"/>
-    <col customWidth="1" min="35" max="35" width="33.13"/>
-    <col customWidth="1" min="36" max="36" width="26.25"/>
-    <col customWidth="1" min="37" max="37" width="30.25"/>
-    <col customWidth="1" min="38" max="39" width="18.88"/>
-    <col customWidth="1" min="40" max="40" width="19.75"/>
-    <col customWidth="1" min="41" max="47" width="18.88"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="30.21875" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
+    <col min="9" max="9" width="33.109375" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" customWidth="1"/>
+    <col min="11" max="11" width="24.44140625" customWidth="1"/>
+    <col min="12" max="12" width="26.21875" customWidth="1"/>
+    <col min="13" max="13" width="31.33203125" customWidth="1"/>
+    <col min="14" max="14" width="33.109375" customWidth="1"/>
+    <col min="15" max="15" width="30.21875" customWidth="1"/>
+    <col min="16" max="17" width="18.88671875" customWidth="1"/>
+    <col min="18" max="18" width="24.44140625" customWidth="1"/>
+    <col min="19" max="19" width="26.21875" customWidth="1"/>
+    <col min="20" max="20" width="31.33203125" customWidth="1"/>
+    <col min="21" max="21" width="33.109375" customWidth="1"/>
+    <col min="22" max="22" width="30.21875" customWidth="1"/>
+    <col min="23" max="23" width="18.88671875" customWidth="1"/>
+    <col min="24" max="24" width="32.109375" customWidth="1"/>
+    <col min="25" max="25" width="19" customWidth="1"/>
+    <col min="26" max="26" width="20" customWidth="1"/>
+    <col min="27" max="27" width="21.88671875" customWidth="1"/>
+    <col min="28" max="28" width="18.88671875" customWidth="1"/>
+    <col min="29" max="29" width="33.33203125" customWidth="1"/>
+    <col min="30" max="30" width="19" customWidth="1"/>
+    <col min="31" max="31" width="26.21875" customWidth="1"/>
+    <col min="32" max="33" width="18.88671875" customWidth="1"/>
+    <col min="34" max="34" width="31.33203125" customWidth="1"/>
+    <col min="35" max="35" width="33.109375" customWidth="1"/>
+    <col min="36" max="36" width="26.21875" customWidth="1"/>
+    <col min="37" max="37" width="30.21875" customWidth="1"/>
+    <col min="38" max="39" width="18.88671875" customWidth="1"/>
+    <col min="40" max="40" width="19.77734375" customWidth="1"/>
+    <col min="41" max="47" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,38 +917,38 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45602.86479685185</v>
+        <v>45602.864796851849</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="7">
-        <v>45602.0</v>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="6">
+        <v>45602</v>
       </c>
       <c r="X2" s="5">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>21</v>
@@ -962,20 +959,20 @@
       <c r="AA2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="7">
-        <v>45602.0</v>
+      <c r="AB2" s="6">
+        <v>45602</v>
       </c>
       <c r="AC2" s="5">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AD2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="AE2" s="5">
-        <v>17.0</v>
-      </c>
-      <c r="AF2" s="7">
-        <v>45602.0</v>
+        <v>17</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>45602</v>
       </c>
       <c r="AG2" s="5" t="s">
         <v>25</v>
@@ -984,16 +981,16 @@
         <v>26</v>
       </c>
       <c r="AI2" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AJ2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="AK2" s="5">
-        <v>62.0</v>
-      </c>
-      <c r="AL2" s="7">
-        <v>45586.0</v>
+        <v>62</v>
+      </c>
+      <c r="AL2" s="6">
+        <v>45586</v>
       </c>
       <c r="AM2" s="5" t="s">
         <v>27</v>
@@ -1001,258 +998,258 @@
       <c r="AN2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AO2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>45602.923614259256</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="12">
-        <v>45591.0</v>
-      </c>
-      <c r="AG3" s="10" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="10">
+        <v>45591</v>
+      </c>
+      <c r="AG3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="10" t="s">
+      <c r="AH3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AI3" s="10" t="s">
+      <c r="AI3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AJ3" s="10" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AK3" s="10">
-        <v>40.0</v>
-      </c>
-      <c r="AL3" s="12">
-        <v>45591.0</v>
-      </c>
-      <c r="AM3" s="10" t="s">
+      <c r="AK3" s="9">
+        <v>40</v>
+      </c>
+      <c r="AL3" s="10">
+        <v>45591</v>
+      </c>
+      <c r="AM3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AN3" s="10" t="s">
+      <c r="AN3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AO3" s="13" t="s">
+      <c r="AO3" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="14">
-        <v>45602.92572084491</v>
-      </c>
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45602.925720844913</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="17">
-        <v>45594.0</v>
-      </c>
-      <c r="AG4" s="15" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="6">
+        <v>45594</v>
+      </c>
+      <c r="AG4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AH4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AI4" s="15" t="s">
+      <c r="AI4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AJ4" s="15" t="s">
+      <c r="AJ4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AK4" s="15">
-        <v>8.0</v>
-      </c>
-      <c r="AL4" s="17">
-        <v>45594.0</v>
-      </c>
-      <c r="AM4" s="15" t="s">
+      <c r="AK4" s="5">
+        <v>8</v>
+      </c>
+      <c r="AL4" s="6">
+        <v>45594</v>
+      </c>
+      <c r="AM4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AN4" s="15" t="s">
+      <c r="AN4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AO4" s="18" t="s">
+      <c r="AO4" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="9">
-        <v>45602.9274090625</v>
-      </c>
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>45602.927409062497</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="11"/>
-      <c r="AL5" s="12">
-        <v>45572.0</v>
-      </c>
-      <c r="AM5" s="10" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="10">
+        <v>45572</v>
+      </c>
+      <c r="AM5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AN5" s="10" t="s">
+      <c r="AN5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AO5" s="13" t="s">
+      <c r="AO5" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="19">
-        <v>45602.9282800463</v>
-      </c>
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>45602.928280046297</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="22">
-        <v>45574.0</v>
-      </c>
-      <c r="AM6" s="20" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="14">
+        <v>45574</v>
+      </c>
+      <c r="AM6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AN6" s="20" t="s">
+      <c r="AN6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AO6" s="23" t="s">
+      <c r="AO6" s="15" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>